--- a/separarRelatorio/separarPediatrico.xlsx
+++ b/separarRelatorio/separarPediatrico.xlsx
@@ -20,7 +20,7 @@
     <t>CISBAF x Marque fácil</t>
   </si>
   <si>
-    <t>Filtros aplicados: Modelo: Analitico | Visualização: MUNICIPIO | Agrupamento: Municipio | Situação: AGENDADO, REALIZADO | Prestadores: 73 | Período: 14/12/2025 a 19/01/2026</t>
+    <t>Filtros aplicados: Modelo: Analitico | Visualização: MUNICIPIO | Agrupamento: Municipio | Situação: VALIDADO | Prestadores: 73 | Período: 15/12/2025 a 19/01/2026</t>
   </si>
   <si>
     <t>MUNICIPIO: RJ - Duque de Caxias</t>
